--- a/timetabling_GA/results/HK1_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_HocKy_GiangVien.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,8 +608,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -623,38 +623,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -662,48 +674,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -711,167 +709,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -890,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,8 +907,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -997,38 +922,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1036,48 +973,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1085,167 +1008,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1264,7 +1114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,8 +1206,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1371,38 +1221,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1410,48 +1272,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1459,167 +1307,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1638,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,8 +1505,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1745,38 +1520,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1784,48 +1571,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1833,167 +1606,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2012,7 +1712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,8 +1804,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2119,38 +1819,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2158,48 +1870,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2207,167 +1905,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2386,7 +2011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,8 +2103,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2493,38 +2118,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2532,48 +2169,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2581,167 +2204,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2760,7 +2310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2852,8 +2402,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2867,38 +2417,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2906,48 +2468,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2955,167 +2503,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3134,7 +2609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,8 +2701,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3241,38 +2716,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -3280,48 +2767,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3329,167 +2802,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3508,7 +2908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3600,8 +3000,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3615,38 +3015,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -3654,48 +3066,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3703,167 +3101,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3882,7 +3207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3974,8 +3299,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3989,38 +3314,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -4028,48 +3365,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4077,167 +3400,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4256,7 +3506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4348,8 +3598,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4363,38 +3613,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -4402,48 +3664,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4451,167 +3699,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4630,7 +3805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4722,8 +3897,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4737,38 +3912,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -4776,48 +3963,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4825,167 +3998,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5004,7 +4104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5096,8 +4196,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5111,38 +4211,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -5150,48 +4262,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -5199,167 +4297,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5378,7 +4403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5470,8 +4495,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5485,38 +4510,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -5524,48 +4561,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -5573,167 +4596,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5752,7 +4702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5844,8 +4794,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5859,38 +4809,50 @@
         <is>
           <t>Lớp: CL01
 Môn: Cơ sở dữ liệu
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
 Môn: Lập trình cơ bản
 Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -5898,48 +4860,34 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
+          <t>Nguyễn Văn A</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: R103
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -5947,167 +4895,94 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R103
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R101
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH05
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH06
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
 (Thực hành)</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: MH05
-Phòng: R105
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: MH06
-Phòng: LAB04
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_HocKy_GiangVien.xlsx
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,130 +608,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -742,32 +716,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -775,28 +828,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -815,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,130 +940,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1041,32 +1048,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1074,28 +1160,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1114,7 +1180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,130 +1272,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1340,32 +1380,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1373,28 +1492,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1413,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1505,130 +1604,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1639,32 +1712,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1672,28 +1824,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1712,7 +1844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,130 +1936,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1938,32 +2044,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1971,28 +2156,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2011,7 +2176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,130 +2268,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2237,32 +2376,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -2270,28 +2488,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2310,7 +2508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,130 +2600,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2536,32 +2708,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -2569,28 +2820,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2609,7 +2840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,130 +2932,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2835,32 +3040,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -2868,28 +3152,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2908,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3000,130 +3264,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3134,32 +3372,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -3167,28 +3484,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3207,7 +3504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3299,130 +3596,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3433,32 +3704,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -3466,28 +3816,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3506,7 +3836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3598,130 +3928,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3732,32 +4036,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -3765,28 +4148,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3805,7 +4168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,130 +4260,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4031,32 +4368,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4064,28 +4480,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4104,7 +4500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,130 +4592,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4330,32 +4700,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4363,28 +4812,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4403,7 +4832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4495,130 +4924,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4629,32 +5032,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4662,28 +5144,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4702,7 +5164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4794,130 +5256,104 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB01
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4928,32 +5364,111 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB01
+(Thực hành)</t>
         </is>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R101
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4961,28 +5476,8 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB03
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT01/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_HocKy_GiangVien.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,22 +614,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -646,19 +653,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -668,15 +675,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -691,21 +698,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -715,15 +729,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -737,29 +751,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -767,15 +788,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -791,45 +812,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -848,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,22 +1044,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -978,19 +1083,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1000,15 +1105,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1023,21 +1128,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1047,15 +1159,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -1069,29 +1181,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1099,15 +1218,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -1123,45 +1242,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1180,7 +1376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,22 +1474,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -1310,19 +1513,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1332,15 +1535,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1355,21 +1558,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1379,15 +1589,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -1401,29 +1611,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1431,15 +1648,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -1455,45 +1672,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1512,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,22 +1904,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -1642,19 +1943,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1664,15 +1965,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1687,21 +1988,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1711,15 +2019,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -1733,29 +2041,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1763,15 +2078,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -1787,45 +2102,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1844,7 +2236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,22 +2334,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -1974,19 +2373,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -1996,15 +2395,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2019,21 +2418,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2043,15 +2449,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2065,29 +2471,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2095,15 +2508,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -2119,45 +2532,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2176,7 +2666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2274,22 +2764,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2306,19 +2803,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2328,15 +2825,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2351,21 +2848,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2375,15 +2879,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2397,29 +2901,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2427,15 +2938,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -2451,45 +2962,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2508,7 +3096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2606,22 +3194,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2638,19 +3233,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2660,15 +3255,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2683,21 +3278,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2707,15 +3309,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2729,29 +3331,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2759,15 +3368,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -2783,45 +3392,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2840,7 +3526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,22 +3624,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2970,19 +3663,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -2992,15 +3685,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3015,21 +3708,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3039,15 +3739,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -3061,29 +3761,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3091,15 +3798,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -3115,45 +3822,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3172,7 +3956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3270,22 +4054,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3302,19 +4093,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3324,15 +4115,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3347,21 +4138,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3371,15 +4169,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -3393,29 +4191,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3423,15 +4228,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -3447,45 +4252,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3504,7 +4386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3602,22 +4484,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3634,19 +4523,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3656,15 +4545,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3679,21 +4568,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3703,15 +4599,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -3725,29 +4621,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3755,15 +4658,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -3779,45 +4682,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3836,7 +4816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3934,22 +4914,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3966,19 +4953,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -3988,15 +4975,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4011,21 +4998,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4035,15 +5029,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -4057,29 +5051,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4087,15 +5088,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -4111,45 +5112,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4168,7 +5246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,22 +5344,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4298,19 +5383,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4320,15 +5405,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4343,21 +5428,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4367,15 +5459,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -4389,29 +5481,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4419,15 +5518,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -4443,45 +5542,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4500,7 +5676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,22 +5774,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4630,19 +5813,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4652,15 +5835,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4675,21 +5858,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4699,15 +5889,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -4721,29 +5911,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4751,15 +5948,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -4775,45 +5972,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4832,7 +6106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4930,22 +6204,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4962,19 +6243,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -4984,15 +6265,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5007,21 +6288,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -5031,15 +6319,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -5053,29 +6341,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -5083,15 +6378,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -5107,45 +6402,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5164,7 +6536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5262,22 +6634,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: LAB02
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -5294,19 +6673,19 @@
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -5316,15 +6695,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5339,21 +6718,28 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -5363,15 +6749,15 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: LAB01
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -5385,29 +6771,36 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 Phòng: LAB02
 (Thực hành)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Lê Văn C</t>
@@ -5415,15 +6808,15 @@
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-Phòng: R102
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+Phòng: LAB02
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
@@ -5439,45 +6832,122 @@
           <t>Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Lê Văn C</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: LAB03
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
